--- a/prep_and_checklists/Chanel Breakfast  /PREPLIST_Chanel Breakfast  _11-24-2025_0.xlsx
+++ b/prep_and_checklists/Chanel Breakfast  /PREPLIST_Chanel Breakfast  _11-24-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Chanel Breakfast  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E295FB-C412-9D4A-8ABC-4221692D3AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02E499-6B4D-274C-951E-1DA958D9C49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,22 +639,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="49" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -827,8 +834,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
@@ -1040,5 +1048,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>